--- a/IR_sensor_characterization.xlsx
+++ b/IR_sensor_characterization.xlsx
@@ -163,6 +163,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IR Sensor Characterization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -443,7 +462,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Voltage</a:t>
+                  <a:t>Voltage (V)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -482,15 +501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -802,7 +821,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
